--- a/untranslated/downloads/data-excel/4.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/4.3.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -214,6 +214,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,9 +537,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -566,9 +573,11 @@
       <c r="K3" s="6">
         <v>2019</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -602,9 +611,11 @@
       <c r="K4" s="10">
         <v>10</v>
       </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -638,9 +649,11 @@
       <c r="K5" s="3">
         <v>6.2</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="16">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -674,9 +687,11 @@
       <c r="K6" s="3">
         <v>13.7</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="16">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -710,9 +725,11 @@
       <c r="K7" s="11">
         <v>23.1</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="16">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -746,9 +763,11 @@
       <c r="K8" s="3">
         <v>26.5</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="16">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -782,8 +801,11 @@
       <c r="K9" s="2">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -817,8 +839,11 @@
       <c r="K10" s="8">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="17">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -852,8 +877,11 @@
       <c r="K11" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="17">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -886,6 +914,9 @@
       </c>
       <c r="K12" s="4">
         <v>20.8</v>
+      </c>
+      <c r="L12" s="18">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/4.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/4.3.1.1.xlsx
@@ -53,9 +53,6 @@
     <t>4.3.1.1 Жынынсы боюнча жаштардын билимдүүлүгү</t>
   </si>
   <si>
-    <t>4.3.1.1. Youth education by gender</t>
-  </si>
-  <si>
     <t>Жаштардын баштапкы кесиптик билим алгандардын үлүшү (калктын 15-17 жашын алганда)</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>4.3.1.1 Youth education by gender</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -214,11 +214,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -512,7 +507,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,12 +515,12 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -538,16 +533,17 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>2010</v>
@@ -573,19 +569,22 @@
       <c r="K3" s="6">
         <v>2019</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8">
         <v>9</v>
@@ -611,19 +610,22 @@
       <c r="K4" s="10">
         <v>10</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>5.4</v>
@@ -649,19 +651,22 @@
       <c r="K5" s="3">
         <v>6.2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>12.5</v>
@@ -687,19 +692,22 @@
       <c r="K6" s="3">
         <v>13.7</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8">
         <v>13.6</v>
@@ -725,19 +733,22 @@
       <c r="K7" s="11">
         <v>23.1</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="11">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="11">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>16</v>
@@ -763,19 +774,22 @@
       <c r="K8" s="3">
         <v>26.5</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="3">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>11.2</v>
@@ -801,19 +815,22 @@
       <c r="K9" s="2">
         <v>19.8</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="2">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8">
         <v>24.3</v>
@@ -839,19 +856,22 @@
       <c r="K10" s="8">
         <v>22.1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="8">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="8">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>26.3</v>
@@ -877,19 +897,22 @@
       <c r="K11" s="2">
         <v>23.5</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="2">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>22.4</v>
@@ -915,8 +938,11 @@
       <c r="K12" s="4">
         <v>20.8</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="4">
         <v>25</v>
+      </c>
+      <c r="M12" s="4">
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/4.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/4.3.1.1.xlsx
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -213,6 +213,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -507,7 +519,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +532,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -534,8 +546,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -575,8 +588,11 @@
       <c r="M3" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -616,8 +632,11 @@
       <c r="M4" s="10">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="10">
+        <v>9.224468514531754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -657,8 +676,11 @@
       <c r="M5" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <v>4.6068543125097872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -698,8 +720,11 @@
       <c r="M6" s="3">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <v>13.543910285971602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -739,8 +764,11 @@
       <c r="M7" s="11">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="10">
+        <v>24.703327617190443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -780,8 +808,11 @@
       <c r="M8" s="3">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="14">
+        <v>28.608474183838851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,8 +852,11 @@
       <c r="M9" s="2">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="15">
+        <v>20.904451081350146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -862,8 +896,11 @@
       <c r="M10" s="8">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="16">
+        <v>26.720095429750884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -903,8 +940,11 @@
       <c r="M11" s="2">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="15">
+        <v>27.704327204727914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -943,6 +983,9 @@
       </c>
       <c r="M12" s="4">
         <v>27.5</v>
+      </c>
+      <c r="N12" s="17">
+        <v>25.731792255708452</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/4.3.1.1.xlsx
+++ b/untranslated/downloads/data-excel/4.3.1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Процент охвата молодежи начальным профессиональным образованием (от населения в возрасте 15-17 лет)</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>4.3.1.1 Youth education by gender</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +152,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -225,6 +242,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,11 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -519,7 +537,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,460 +550,502 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>2010</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>2013</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="6">
         <v>2014</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>2015</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H4" s="6">
         <v>2016</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I4" s="6">
         <v>2017</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J4" s="6">
         <v>2018</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K4" s="6">
         <v>2019</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L4" s="6">
         <v>2020</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M4" s="6">
         <v>2021</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="O4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="8">
         <v>9</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="8">
         <v>9.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G5" s="8">
         <v>9.5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5" s="8">
         <v>10.4</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="8">
         <v>10.9</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J5" s="8">
         <v>10.1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K5" s="10">
         <v>10</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M5" s="10">
         <v>10.8</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N5" s="10">
         <v>9.224468514531754</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="O5" s="10">
+        <v>7.9591147916539313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>5.4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>5.6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>5.8</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>6.3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="2">
         <v>6.9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="2">
         <v>6.2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <v>6.2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <v>6.4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="3">
         <v>5.2</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N6" s="14">
         <v>4.6068543125097872</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="O6" s="14">
+        <v>4.1262815690193904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>12.5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>12.6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>12.9</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>13.1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>14.3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="2">
         <v>14.7</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <v>13.9</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="3">
         <v>13.7</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L7" s="3">
         <v>13.5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
         <v>16.2</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <v>13.543910285971602</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="O7" s="14">
+        <v>11.553674062171684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>13.6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>20.3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>21.8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>21.1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <v>22</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>22.8</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>23.1</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>23.1</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <v>24.3</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M8" s="11">
         <v>24.2</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N8" s="10">
         <v>24.703327617190443</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="O8" s="10">
+        <v>26.7840134279745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>23.8</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>24.3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>24.2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>25.2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>26.4</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>26.4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <v>26.5</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L9" s="3">
         <v>27.8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="3">
         <v>27.6</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <v>28.608474183838851</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="O9" s="14">
+        <v>31.703252552185106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>11.2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>16.8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>18</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>18</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>18.8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>19.3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="2">
         <v>19.8</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <v>20.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10" s="2">
         <v>20.9</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>20.904451081350146</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="O10" s="15">
+        <v>22.127282549972989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>24.3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>24.3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>23.8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>22.6</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>20.2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>19.100000000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>19.8</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="8">
         <v>22.1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L11" s="8">
         <v>26.7</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M11" s="8">
         <v>28.5</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N11" s="16">
         <v>26.720095429750884</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="O11" s="16">
+        <v>25.785751793343863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>26.3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>26.7</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>26.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>24.6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>22.2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>20.6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>21.3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>23.5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="2">
         <v>28.4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M12" s="2">
         <v>29.7</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N12" s="15">
         <v>27.704327204727914</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="O12" s="15">
+        <v>27.265979822798002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>22.4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>21.8</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>21.2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>20.6</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>18.3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>18.3</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>20.8</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="4">
         <v>25</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M13" s="4">
         <v>27.5</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="17">
         <v>25.731792255708452</v>
+      </c>
+      <c r="O13" s="17">
+        <v>24.322552749117975</v>
       </c>
     </row>
   </sheetData>
